--- a/Antimicrobial_of_honey.xlsx
+++ b/Antimicrobial_of_honey.xlsx
@@ -12,6 +12,7 @@
     <sheet name="S_aureus" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="K_pneumonia" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="P_mirabilis" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="S_aureus_Copy" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="20">
   <si>
     <t xml:space="preserve">Group</t>
   </si>
@@ -515,7 +516,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -902,106 +903,58 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B23" s="0" t="n">
-        <v>29.2</v>
+        <v>10.6</v>
       </c>
       <c r="C23" s="0" t="n">
-        <v>28.5</v>
+        <v>16.7</v>
       </c>
       <c r="D23" s="0" t="n">
-        <v>33.4</v>
+        <v>18.2</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>31.1</v>
+        <v>20.3</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B24" s="0" t="n">
-        <v>28.5</v>
+        <v>10.6</v>
       </c>
       <c r="C24" s="0" t="n">
-        <v>30.5</v>
+        <v>16.7</v>
       </c>
       <c r="D24" s="0" t="n">
-        <v>33.6</v>
+        <v>19.5</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>31.9</v>
+        <v>21.8</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B25" s="0" t="n">
-        <v>28.2</v>
+        <v>10.9</v>
       </c>
       <c r="C25" s="0" t="n">
-        <v>30.6</v>
+        <v>15.6</v>
       </c>
       <c r="D25" s="0" t="n">
-        <v>34</v>
+        <v>19.6</v>
       </c>
       <c r="E25" s="0" t="n">
-        <v>33.4</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="B26" s="0" t="n">
-        <v>10.6</v>
-      </c>
-      <c r="C26" s="0" t="n">
-        <v>16.7</v>
-      </c>
-      <c r="D26" s="0" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="E26" s="0" t="n">
-        <v>20.3</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="B27" s="0" t="n">
-        <v>10.6</v>
-      </c>
-      <c r="C27" s="0" t="n">
-        <v>16.7</v>
-      </c>
-      <c r="D27" s="0" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="E27" s="0" t="n">
-        <v>21.8</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="B28" s="0" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="C28" s="0" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="D28" s="0" t="n">
-        <v>19.6</v>
-      </c>
-      <c r="E28" s="0" t="n">
         <v>22</v>
       </c>
     </row>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -1681,4 +1634,507 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E28"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="10.76"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>16.8</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>18.6</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>9.3</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>18.8</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>19.2</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>20.1</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>22.3</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>10.9</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>8.3</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>8.7</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>8.2</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>14.9</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>15.7</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="D22" s="0" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>17.8</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>31.1</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="D24" s="0" t="n">
+        <v>33.6</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>31.9</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>28.2</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <v>33.4</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26" s="0" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="D26" s="0" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <v>20.3</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" s="0" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="D27" s="0" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="E27" s="0" t="n">
+        <v>21.8</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" s="0" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="D28" s="0" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="E28" s="0" t="n">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
 </file>